--- a/pred_ohlcv/54_21/2020-01-13 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 TRX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5469311.729942231</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5626309.32064223</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5709353.06364223</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5699904.35364223</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5829909.57794223</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5727044.87194223</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5520173.020142229</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5520173.020142229</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5411533.786642229</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>5423797.539242229</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5350985.01224223</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5507592.02254223</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6718760.18944223</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6538095.237042231</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6599102.98434223</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6215137.20644223</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6213635.535742231</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6215137.20644223</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6231076.386742231</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6075529.54914223</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6075033.949142231</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6075033.949142231</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5954854.338142231</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5969574.537042231</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5177970.67624223</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5077966.67624223</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5231950.626242231</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1296241.618228779</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1706063.050228779</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1679128.818488009</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1703572.024288009</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1977719.565988009</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1794349.338888009</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1694349.338888009</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>320043.677032481</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>319508.677032481</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>319306.431111031</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>525333.659111031</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-748932.2332889693</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-575577.3727889692</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-670039.3060889692</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-333770.2239237292</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-359057.7344237292</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-232731.4021237292</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1352519.763488849</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1922443.393588849</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1469094.522318189</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>760081.939577853</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>766963.5091778529</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>766996.3151778529</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>554485.4226778529</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>554585.4226778529</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>550489.0370778529</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>452437.990880983</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>452520.3226809829</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>362160.2585809829</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>579005.8936809829</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>514591.1625809829</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>722963.5175809829</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 TRX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5669409.899642231</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5469311.729942231</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5626309.32064223</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5709353.06364223</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5699904.35364223</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5829909.57794223</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5727044.87194223</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5520173.020142229</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5520173.020142229</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6718760.18944223</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6518760.18944223</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6538095.237042231</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6599102.98434223</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6215137.20644223</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6213635.535742231</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6215137.20644223</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6231076.386742231</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6075529.54914223</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6075033.949142231</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6075033.949142231</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5954854.338142231</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5231950.626242231</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5159488.035142231</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4749623.331090472</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4750984.931090471</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>4521255.597290471</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4347025.775590471</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>4482473.775590471</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4482473.775590471</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4277628.81108151</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1296241.618228779</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1340271.347128779</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1759811.161728779</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1729141.161728779</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1729141.161728779</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1701337.948728779</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1731337.948728779</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1731337.948728779</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1706137.838128779</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1706063.050228779</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1889417.726788009</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1977719.565988009</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1804659.805288009</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1794349.338888009</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1694349.338888009</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1688302.314188009</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1695321.314188009</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1227034.322190229</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1227034.322190229</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1149962.573590229</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1325360.180790229</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-30761.25509022898</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-63055.89949022899</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-77252.06789022898</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-77252.06789022898</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>452684.6034097711</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>427363.416609771</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>350538.506109771</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>450733.5974097711</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>305517.798032481</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>302574.458032481</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>304998.650132481</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>246033.204532481</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>246033.204532481</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>320043.677032481</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>319508.677032481</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>319306.431111031</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>525333.659111031</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>525333.659111031</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1250331.413188969</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1241689.665088969</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1312756.556188969</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1312756.556188969</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1312756.556188969</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1199936.313188969</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-748932.2332889693</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-722045.9300889693</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-575566.3185889692</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-575577.3727889692</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-670039.3060889692</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-333770.2239237292</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-359057.7344237292</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-232731.4021237292</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1408720.394718189</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1371496.955918189</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1352519.763488849</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1922443.393588849</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1469094.522318189</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3538068.040519401</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3715190.360613531</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3715802.726844201</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3712171.074344201</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3704302.689444202</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3700812.689444202</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3714771.212344202</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>760081.939577853</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>766963.5091778529</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>767063.5091778529</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>766996.3151778529</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>554485.4226778529</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>554585.4226778529</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>550489.0370778529</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>452437.990880983</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>449306.032680983</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>452520.3226809829</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>362160.2585809829</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>319017.7352809829</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>579005.8936809829</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>514591.1625809829</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>722963.5175809829</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
